--- a/modelos/logico/diccionario/diccionario_datos_logico_bicicletas.xlsx
+++ b/modelos/logico/diccionario/diccionario_datos_logico_bicicletas.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Wilma\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{287AE99A-9244-48B1-9283-DC934EEDC326}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1DD7499-F422-4B3C-8BC1-49539E260690}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Diccionario" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="136">
   <si>
     <t>Tabla</t>
   </si>
@@ -137,9 +137,6 @@
     <t>hora</t>
   </si>
   <si>
-    <t>vigente</t>
-  </si>
-  <si>
     <t>id_estado_fisico</t>
   </si>
   <si>
@@ -158,9 +155,6 @@
     <t>Hora</t>
   </si>
   <si>
-    <t>Booleano</t>
-  </si>
-  <si>
     <t>Sí</t>
   </si>
   <si>
@@ -182,15 +176,6 @@
     <t>FECHA_ACTUAL</t>
   </si>
   <si>
-    <t>TRUE</t>
-  </si>
-  <si>
-    <t>LENGTH(nombre) BETWEEN 2 AND 50</t>
-  </si>
-  <si>
-    <t>LENGTH(apellido) BETWEEN 2 AND 50</t>
-  </si>
-  <si>
     <t>email LIKE '%@%.%'</t>
   </si>
   <si>
@@ -215,9 +200,6 @@
     <t>fecha &lt;= FECHA_ACTUAL</t>
   </si>
   <si>
-    <t>Para cada id_bicicleta, máx. un vigente=TRUE</t>
-  </si>
-  <si>
     <t>IN {'excelente','bueno','requiere_servicio'}</t>
   </si>
   <si>
@@ -293,9 +275,6 @@
     <t>Hora del registro de estado.</t>
   </si>
   <si>
-    <t>Indica si es el estado operativo vigente.</t>
-  </si>
-  <si>
     <t>Identificador del registro de estado físico.</t>
   </si>
   <si>
@@ -311,9 +290,6 @@
     <t>Hora del registro de estado físico.</t>
   </si>
   <si>
-    <t>Indica si es la condición física vigente.</t>
-  </si>
-  <si>
     <t>101</t>
   </si>
   <si>
@@ -447,6 +423,12 @@
   </si>
   <si>
     <t>Baja administrativa preservando histórico</t>
+  </si>
+  <si>
+    <t>LENGTH(nombre) BETWEEN 2 AND 100</t>
+  </si>
+  <si>
+    <t>LENGTH(apellido) BETWEEN 2 AND 100</t>
   </si>
 </sst>
 </file>
@@ -528,9 +510,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -568,9 +550,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -603,26 +585,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -655,26 +620,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -848,27 +796,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M33"/>
+  <dimension ref="A1:M31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="J38" sqref="J38"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="82" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.6640625" customWidth="1"/>
-    <col min="2" max="2" width="22.6640625" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" customWidth="1"/>
-    <col min="4" max="4" width="9.6640625" customWidth="1"/>
-    <col min="5" max="6" width="18.6640625" customWidth="1"/>
-    <col min="7" max="7" width="26.21875" customWidth="1"/>
-    <col min="8" max="10" width="18.6640625" customWidth="1"/>
-    <col min="11" max="11" width="45.44140625" customWidth="1"/>
-    <col min="12" max="12" width="43.77734375" customWidth="1"/>
-    <col min="13" max="13" width="35.21875" customWidth="1"/>
+    <col min="1" max="1" width="18.7109375" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" customWidth="1"/>
+    <col min="5" max="6" width="18.7109375" customWidth="1"/>
+    <col min="7" max="7" width="26.28515625" customWidth="1"/>
+    <col min="8" max="10" width="18.7109375" customWidth="1"/>
+    <col min="11" max="11" width="45.42578125" customWidth="1"/>
+    <col min="12" max="12" width="43.7109375" customWidth="1"/>
+    <col min="13" max="13" width="37.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -909,7 +857,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -917,28 +865,28 @@
         <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="L2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="M2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -946,34 +894,34 @@
         <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D3">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="E3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K3" t="s">
-        <v>54</v>
+        <v>134</v>
       </c>
       <c r="L3" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="M3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -981,34 +929,34 @@
         <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D4">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="E4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K4" t="s">
-        <v>55</v>
+        <v>135</v>
       </c>
       <c r="L4" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="M4" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -1016,34 +964,34 @@
         <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D5">
-        <v>100</v>
+        <v>255</v>
       </c>
       <c r="E5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K5" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="L5" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="M5" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -1051,31 +999,31 @@
         <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="L6" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="M6" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -1083,34 +1031,34 @@
         <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D7">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="E7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K7" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="L7" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="M7" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -1118,31 +1066,31 @@
         <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E8" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
+        <v>44</v>
+      </c>
+      <c r="G8" t="s">
         <v>46</v>
       </c>
-      <c r="G8" t="s">
-        <v>48</v>
-      </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J8" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="L8" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="M8" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -1150,31 +1098,31 @@
         <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D9">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="E9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="L9" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="M9" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -1182,31 +1130,31 @@
         <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D10">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="E10" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J10" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="L10" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="M10" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -1214,31 +1162,31 @@
         <v>27</v>
       </c>
       <c r="C11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E11" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J11" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K11" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="L11" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="M11" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -1246,34 +1194,34 @@
         <v>28</v>
       </c>
       <c r="C12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D12">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J12" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K12" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="L12" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="M12" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -1281,34 +1229,34 @@
         <v>29</v>
       </c>
       <c r="C13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D13">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E13" t="s">
+        <v>45</v>
+      </c>
+      <c r="F13" t="s">
+        <v>44</v>
+      </c>
+      <c r="G13" t="s">
         <v>47</v>
       </c>
-      <c r="F13" t="s">
-        <v>46</v>
-      </c>
-      <c r="G13" t="s">
-        <v>49</v>
-      </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J13" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="L13" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="M13" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -1316,34 +1264,34 @@
         <v>30</v>
       </c>
       <c r="C14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D14">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E14" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G14" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J14" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="L14" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="M14" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -1351,31 +1299,31 @@
         <v>23</v>
       </c>
       <c r="C15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E15" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I15" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J15" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="L15" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="M15" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -1383,34 +1331,34 @@
         <v>29</v>
       </c>
       <c r="C16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D16">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E16" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J16" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K16" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="L16" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="M16" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -1418,34 +1366,34 @@
         <v>31</v>
       </c>
       <c r="C17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D17">
         <v>30</v>
       </c>
       <c r="E17" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J17" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K17" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="L17" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="M17" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -1453,31 +1401,31 @@
         <v>32</v>
       </c>
       <c r="C18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D18">
         <v>100</v>
       </c>
       <c r="E18" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H18" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J18" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="L18" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="M18" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -1485,34 +1433,34 @@
         <v>30</v>
       </c>
       <c r="C19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D19">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E19" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J19" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K19" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="L19" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="M19" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>16</v>
       </c>
@@ -1520,34 +1468,34 @@
         <v>33</v>
       </c>
       <c r="C20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D20">
         <v>30</v>
       </c>
       <c r="E20" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J20" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K20" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="L20" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="M20" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>16</v>
       </c>
@@ -1555,31 +1503,31 @@
         <v>32</v>
       </c>
       <c r="C21" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D21">
         <v>100</v>
       </c>
       <c r="E21" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H21" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J21" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="L21" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="M21" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>17</v>
       </c>
@@ -1587,28 +1535,28 @@
         <v>34</v>
       </c>
       <c r="C22" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E22" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J22" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="L22" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="M22" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>17</v>
       </c>
@@ -1616,34 +1564,34 @@
         <v>24</v>
       </c>
       <c r="C23" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D23">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="E23" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G23" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J23" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="L23" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="M23" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>17</v>
       </c>
@@ -1651,34 +1599,34 @@
         <v>35</v>
       </c>
       <c r="C24" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D24">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E24" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J24" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K24" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="L24" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="M24" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>17</v>
       </c>
@@ -1686,31 +1634,31 @@
         <v>36</v>
       </c>
       <c r="C25" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E25" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J25" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K25" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="L25" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="M25" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>17</v>
       </c>
@@ -1718,259 +1666,190 @@
         <v>37</v>
       </c>
       <c r="C26" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E26" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J26" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="L26" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="M26" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B27" t="s">
         <v>38</v>
       </c>
       <c r="C27" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E27" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
-      </c>
-      <c r="I27" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="J27" t="s">
-        <v>47</v>
-      </c>
-      <c r="K27" t="s">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="L27" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="M27" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>18</v>
       </c>
       <c r="B28" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="C28" t="s">
-        <v>41</v>
+        <v>40</v>
+      </c>
+      <c r="D28">
+        <v>50</v>
       </c>
       <c r="E28" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>47</v>
+        <v>44</v>
+      </c>
+      <c r="G28" t="s">
+        <v>49</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J28" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L28" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="M28" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>18</v>
       </c>
       <c r="B29" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="C29" t="s">
         <v>41</v>
       </c>
       <c r="D29">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E29" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>46</v>
-      </c>
-      <c r="G29" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J29" t="s">
-        <v>47</v>
+        <v>45</v>
+      </c>
+      <c r="K29" t="s">
+        <v>59</v>
       </c>
       <c r="L29" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="M29" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>18</v>
       </c>
       <c r="B30" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C30" t="s">
         <v>42</v>
       </c>
-      <c r="D30">
-        <v>20</v>
-      </c>
       <c r="E30" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J30" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K30" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="L30" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="M30" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>18</v>
       </c>
       <c r="B31" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C31" t="s">
         <v>43</v>
       </c>
       <c r="E31" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J31" t="s">
-        <v>47</v>
-      </c>
-      <c r="K31" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="L31" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="M31" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>18</v>
-      </c>
-      <c r="B32" t="s">
-        <v>37</v>
-      </c>
-      <c r="C32" t="s">
-        <v>44</v>
-      </c>
-      <c r="E32" t="s">
-        <v>47</v>
-      </c>
-      <c r="F32" t="s">
-        <v>47</v>
-      </c>
-      <c r="H32" t="s">
-        <v>47</v>
-      </c>
-      <c r="J32" t="s">
-        <v>47</v>
-      </c>
-      <c r="L32" t="s">
-        <v>95</v>
-      </c>
-      <c r="M32" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>18</v>
-      </c>
-      <c r="B33" t="s">
-        <v>38</v>
-      </c>
-      <c r="C33" t="s">
-        <v>45</v>
-      </c>
-      <c r="E33" t="s">
-        <v>47</v>
-      </c>
-      <c r="F33" t="s">
-        <v>47</v>
-      </c>
-      <c r="H33" t="s">
-        <v>47</v>
-      </c>
-      <c r="I33" t="s">
-        <v>53</v>
-      </c>
-      <c r="J33" t="s">
-        <v>47</v>
-      </c>
-      <c r="K33" t="s">
-        <v>64</v>
-      </c>
-      <c r="L33" t="s">
-        <v>96</v>
-      </c>
-      <c r="M33" t="s">
-        <v>53</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1978,140 +1857,145 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="59" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="36.6640625" customWidth="1"/>
+    <col min="1" max="2" width="36.7109375" customWidth="1"/>
+    <col min="3" max="3" width="54.5703125" customWidth="1"/>
+    <col min="4" max="4" width="40.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="B2" t="s">
         <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="D2" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="B3" t="s">
         <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="D3" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="B4" t="s">
         <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="D4" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="B5" t="s">
         <v>18</v>
       </c>
       <c r="C5" t="s">
+        <v>125</v>
+      </c>
+      <c r="D5" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>119</v>
+      </c>
+      <c r="B6" t="s">
+        <v>120</v>
+      </c>
+      <c r="C6" t="s">
+        <v>126</v>
+      </c>
+      <c r="D6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>119</v>
+      </c>
+      <c r="B7" t="s">
+        <v>121</v>
+      </c>
+      <c r="C7" t="s">
+        <v>127</v>
+      </c>
+      <c r="D7" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>119</v>
+      </c>
+      <c r="B8" t="s">
+        <v>122</v>
+      </c>
+      <c r="C8" t="s">
+        <v>127</v>
+      </c>
+      <c r="D8" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>119</v>
+      </c>
+      <c r="B9" t="s">
+        <v>123</v>
+      </c>
+      <c r="C9" t="s">
+        <v>128</v>
+      </c>
+      <c r="D9" t="s">
         <v>133</v>
-      </c>
-      <c r="D5" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>127</v>
-      </c>
-      <c r="B6" t="s">
-        <v>128</v>
-      </c>
-      <c r="C6" t="s">
-        <v>134</v>
-      </c>
-      <c r="D6" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>127</v>
-      </c>
-      <c r="B7" t="s">
-        <v>129</v>
-      </c>
-      <c r="C7" t="s">
-        <v>135</v>
-      </c>
-      <c r="D7" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>127</v>
-      </c>
-      <c r="B8" t="s">
-        <v>130</v>
-      </c>
-      <c r="C8" t="s">
-        <v>135</v>
-      </c>
-      <c r="D8" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>127</v>
-      </c>
-      <c r="B9" t="s">
-        <v>131</v>
-      </c>
-      <c r="C9" t="s">
-        <v>136</v>
-      </c>
-      <c r="D9" t="s">
-        <v>141</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>